--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl13-Cxcr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl13-Cxcr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,40 +543,40 @@
         <v>12.139396</v>
       </c>
       <c r="I2">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="J2">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.397452</v>
+        <v>0.2320226666666667</v>
       </c>
       <c r="N2">
-        <v>1.192356</v>
+        <v>0.696068</v>
       </c>
       <c r="O2">
-        <v>0.2880215661810975</v>
+        <v>0.2267671859540574</v>
       </c>
       <c r="P2">
-        <v>0.2880215661810974</v>
+        <v>0.2267671859540574</v>
       </c>
       <c r="Q2">
-        <v>1.608275739664</v>
+        <v>0.9388716772142222</v>
       </c>
       <c r="R2">
-        <v>14.474481656976</v>
+        <v>8.449845094928</v>
       </c>
       <c r="S2">
-        <v>0.238460164093599</v>
+        <v>0.1170596563958414</v>
       </c>
       <c r="T2">
-        <v>0.238460164093599</v>
+        <v>0.1170596563958414</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>12.139396</v>
       </c>
       <c r="I3">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="J3">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,28 +617,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.5973453333333334</v>
+        <v>0.5973453333333333</v>
       </c>
       <c r="N3">
         <v>1.792036</v>
       </c>
       <c r="O3">
-        <v>0.4328782807927408</v>
+        <v>0.5838150307848733</v>
       </c>
       <c r="P3">
-        <v>0.4328782807927407</v>
+        <v>0.5838150307848734</v>
       </c>
       <c r="Q3">
-        <v>2.417137183361778</v>
+        <v>2.417137183361777</v>
       </c>
       <c r="R3">
         <v>21.754234650256</v>
       </c>
       <c r="S3">
-        <v>0.3583906137274747</v>
+        <v>0.3013715878462709</v>
       </c>
       <c r="T3">
-        <v>0.3583906137274746</v>
+        <v>0.3013715878462709</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,45 +667,45 @@
         <v>12.139396</v>
       </c>
       <c r="I4">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="J4">
-        <v>0.8279246837497715</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.385141</v>
+        <v>0.120982</v>
       </c>
       <c r="N4">
-        <v>1.155423</v>
+        <v>0.362946</v>
       </c>
       <c r="O4">
-        <v>0.2791001530261618</v>
+        <v>0.1182416704593248</v>
       </c>
       <c r="P4">
-        <v>0.2791001530261618</v>
+        <v>0.1182416704593248</v>
       </c>
       <c r="Q4">
-        <v>1.558459704945333</v>
+        <v>0.4895494689573333</v>
       </c>
       <c r="R4">
-        <v>14.026137344508</v>
+        <v>4.405945220616</v>
       </c>
       <c r="S4">
-        <v>0.2310739059286978</v>
+        <v>0.06103761995989625</v>
       </c>
       <c r="T4">
-        <v>0.2310739059286978</v>
+        <v>0.06103761995989625</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,25 +714,25 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5656100000000001</v>
+        <v>4.046465333333333</v>
       </c>
       <c r="H5">
-        <v>1.69683</v>
+        <v>12.139396</v>
       </c>
       <c r="I5">
-        <v>0.1157263047623724</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="J5">
-        <v>0.1157263047623724</v>
+        <v>0.5162107379131895</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.397452</v>
+        <v>0.07282566666666666</v>
       </c>
       <c r="N5">
-        <v>1.192356</v>
+        <v>0.218477</v>
       </c>
       <c r="O5">
-        <v>0.2880215661810975</v>
+        <v>0.07117611280174437</v>
       </c>
       <c r="P5">
-        <v>0.2880215661810974</v>
+        <v>0.07117611280174438</v>
       </c>
       <c r="Q5">
-        <v>0.22480282572</v>
+        <v>0.2946865355435555</v>
       </c>
       <c r="R5">
-        <v>2.02322543148</v>
+        <v>2.652178819892</v>
       </c>
       <c r="S5">
-        <v>0.03333167154600951</v>
+        <v>0.03674187371118087</v>
       </c>
       <c r="T5">
-        <v>0.0333316715460095</v>
+        <v>0.03674187371118088</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,46 +785,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5656100000000001</v>
+        <v>0.155986</v>
       </c>
       <c r="H6">
-        <v>1.69683</v>
+        <v>0.467958</v>
       </c>
       <c r="I6">
-        <v>0.1157263047623724</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="J6">
-        <v>0.1157263047623724</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.5973453333333334</v>
+        <v>0.2320226666666667</v>
       </c>
       <c r="N6">
-        <v>1.792036</v>
+        <v>0.696068</v>
       </c>
       <c r="O6">
-        <v>0.4328782807927408</v>
+        <v>0.2267671859540574</v>
       </c>
       <c r="P6">
-        <v>0.4328782807927407</v>
+        <v>0.2267671859540574</v>
       </c>
       <c r="Q6">
-        <v>0.3378644939866667</v>
+        <v>0.03619228768266666</v>
       </c>
       <c r="R6">
-        <v>3.04078044588</v>
+        <v>0.325730589144</v>
       </c>
       <c r="S6">
-        <v>0.05009540384803256</v>
+        <v>0.004512498207298384</v>
       </c>
       <c r="T6">
-        <v>0.05009540384803254</v>
+        <v>0.004512498207298384</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.5656100000000001</v>
+        <v>0.155986</v>
       </c>
       <c r="H7">
-        <v>1.69683</v>
+        <v>0.467958</v>
       </c>
       <c r="I7">
-        <v>0.1157263047623724</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="J7">
-        <v>0.1157263047623724</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,33 +865,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.385141</v>
+        <v>0.5973453333333333</v>
       </c>
       <c r="N7">
-        <v>1.155423</v>
+        <v>1.792036</v>
       </c>
       <c r="O7">
-        <v>0.2791001530261618</v>
+        <v>0.5838150307848733</v>
       </c>
       <c r="P7">
-        <v>0.2791001530261618</v>
+        <v>0.5838150307848734</v>
       </c>
       <c r="Q7">
-        <v>0.21783960101</v>
+        <v>0.09317750916533332</v>
       </c>
       <c r="R7">
-        <v>1.96055640909</v>
+        <v>0.838597582488</v>
       </c>
       <c r="S7">
-        <v>0.03229922936833038</v>
+        <v>0.01161748455239167</v>
       </c>
       <c r="T7">
-        <v>0.03229922936833038</v>
+        <v>0.01161748455239167</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,51 +909,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2754046666666667</v>
+        <v>0.155986</v>
       </c>
       <c r="H8">
-        <v>0.826214</v>
+        <v>0.467958</v>
       </c>
       <c r="I8">
-        <v>0.05634901148785605</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="J8">
-        <v>0.05634901148785604</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.397452</v>
+        <v>0.120982</v>
       </c>
       <c r="N8">
-        <v>1.192356</v>
+        <v>0.362946</v>
       </c>
       <c r="O8">
-        <v>0.2880215661810975</v>
+        <v>0.1182416704593248</v>
       </c>
       <c r="P8">
-        <v>0.2880215661810974</v>
+        <v>0.1182416704593248</v>
       </c>
       <c r="Q8">
-        <v>0.109460135576</v>
+        <v>0.018871498252</v>
       </c>
       <c r="R8">
-        <v>0.985141220184</v>
+        <v>0.169843484268</v>
       </c>
       <c r="S8">
-        <v>0.01622973054148895</v>
+        <v>0.002352921229457638</v>
       </c>
       <c r="T8">
-        <v>0.01622973054148895</v>
+        <v>0.002352921229457638</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,16 +971,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2754046666666667</v>
+        <v>0.155986</v>
       </c>
       <c r="H9">
-        <v>0.826214</v>
+        <v>0.467958</v>
       </c>
       <c r="I9">
-        <v>0.05634901148785605</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="J9">
-        <v>0.05634901148785604</v>
+        <v>0.01989925565426652</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.5973453333333334</v>
+        <v>0.07282566666666666</v>
       </c>
       <c r="N9">
-        <v>1.792036</v>
+        <v>0.218477</v>
       </c>
       <c r="O9">
-        <v>0.4328782807927408</v>
+        <v>0.07117611280174437</v>
       </c>
       <c r="P9">
-        <v>0.4328782807927407</v>
+        <v>0.07117611280174438</v>
       </c>
       <c r="Q9">
-        <v>0.1645116924115556</v>
+        <v>0.01135978444066667</v>
       </c>
       <c r="R9">
-        <v>1.480605231704</v>
+        <v>0.102238059966</v>
       </c>
       <c r="S9">
-        <v>0.02439226321723353</v>
+        <v>0.001416351665118823</v>
       </c>
       <c r="T9">
-        <v>0.02439226321723352</v>
+        <v>0.001416351665118823</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.636334333333334</v>
+      </c>
+      <c r="H10">
+        <v>10.909003</v>
+      </c>
+      <c r="I10">
+        <v>0.463890006432544</v>
+      </c>
+      <c r="J10">
+        <v>0.463890006432544</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.2320226666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.696068</v>
+      </c>
+      <c r="O10">
+        <v>0.2267671859540574</v>
+      </c>
+      <c r="P10">
+        <v>0.2267671859540574</v>
+      </c>
+      <c r="Q10">
+        <v>0.8437119889115556</v>
+      </c>
+      <c r="R10">
+        <v>7.593407900204</v>
+      </c>
+      <c r="S10">
+        <v>0.1051950313509176</v>
+      </c>
+      <c r="T10">
+        <v>0.1051950313509176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.636334333333334</v>
+      </c>
+      <c r="H11">
+        <v>10.909003</v>
+      </c>
+      <c r="I11">
+        <v>0.463890006432544</v>
+      </c>
+      <c r="J11">
+        <v>0.463890006432544</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.5973453333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.792036</v>
+      </c>
+      <c r="O11">
+        <v>0.5838150307848733</v>
+      </c>
+      <c r="P11">
+        <v>0.5838150307848734</v>
+      </c>
+      <c r="Q11">
+        <v>2.172147344456445</v>
+      </c>
+      <c r="R11">
+        <v>19.549326100108</v>
+      </c>
+      <c r="S11">
+        <v>0.2708259583862108</v>
+      </c>
+      <c r="T11">
+        <v>0.2708259583862108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E10">
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.636334333333334</v>
+      </c>
+      <c r="H12">
+        <v>10.909003</v>
+      </c>
+      <c r="I12">
+        <v>0.463890006432544</v>
+      </c>
+      <c r="J12">
+        <v>0.463890006432544</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.120982</v>
+      </c>
+      <c r="N12">
+        <v>0.362946</v>
+      </c>
+      <c r="O12">
+        <v>0.1182416704593248</v>
+      </c>
+      <c r="P12">
+        <v>0.1182416704593248</v>
+      </c>
+      <c r="Q12">
+        <v>0.4399310003153333</v>
+      </c>
+      <c r="R12">
+        <v>3.959379002838</v>
+      </c>
+      <c r="S12">
+        <v>0.05485112926997095</v>
+      </c>
+      <c r="T12">
+        <v>0.05485112926997094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.636334333333334</v>
+      </c>
+      <c r="H13">
+        <v>10.909003</v>
+      </c>
+      <c r="I13">
+        <v>0.463890006432544</v>
+      </c>
+      <c r="J13">
+        <v>0.463890006432544</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>0.2754046666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.826214</v>
-      </c>
-      <c r="I10">
-        <v>0.05634901148785605</v>
-      </c>
-      <c r="J10">
-        <v>0.05634901148785604</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.385141</v>
-      </c>
-      <c r="N10">
-        <v>1.155423</v>
-      </c>
-      <c r="O10">
-        <v>0.2791001530261618</v>
-      </c>
-      <c r="P10">
-        <v>0.2791001530261618</v>
-      </c>
-      <c r="Q10">
-        <v>0.1060696287246667</v>
-      </c>
-      <c r="R10">
-        <v>0.9546266585219999</v>
-      </c>
-      <c r="S10">
-        <v>0.01572701772913357</v>
-      </c>
-      <c r="T10">
-        <v>0.01572701772913357</v>
+      <c r="M13">
+        <v>0.07282566666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.218477</v>
+      </c>
+      <c r="O13">
+        <v>0.07117611280174437</v>
+      </c>
+      <c r="P13">
+        <v>0.07117611280174438</v>
+      </c>
+      <c r="Q13">
+        <v>0.2648184720478889</v>
+      </c>
+      <c r="R13">
+        <v>2.383366248431</v>
+      </c>
+      <c r="S13">
+        <v>0.03301788742544468</v>
+      </c>
+      <c r="T13">
+        <v>0.03301788742544468</v>
       </c>
     </row>
   </sheetData>
